--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Enhanced FHIR R5 Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
+    <t>Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,7 +524,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+    <t xml:space="preserve">canonical(PlanDefinition|5.0.0|ActivityDefinition|5.0.0|Measure|5.0.0|OperationDefinition|5.0.0|Questionnaire|5.0.0)
 </t>
   </si>
   <si>
@@ -562,7 +562,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -585,7 +585,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference(Procedure|5.0.0|Observation|5.0.0|MedicationAdministration|5.0.0)
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -726,7 +726,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Practitioner|Organization|Location)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Group|5.0.0|Device|5.0.0|Practitioner|5.0.0|Organization|5.0.0|Location|5.0.0)
 </t>
   </si>
   <si>
@@ -751,7 +751,7 @@
     <t>Procedure.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|RelatedPerson|Practitioner|Organization|CareTeam|PractitionerRole|Specimen)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Group|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|Organization|5.0.0|CareTeam|5.0.0|PractitionerRole|5.0.0|Specimen|5.0.0)
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -843,7 +843,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Patient|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0)
 </t>
   </si>
   <si>
@@ -867,7 +867,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)</t>
+Reference(Patient|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -978,7 +978,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|5.0.0</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -993,7 +993,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device|CareTeam|HealthcareService)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0|Device|5.0.0|CareTeam|5.0.0|HealthcareService|5.0.0)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|5.0.0)
 </t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>Procedure.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition|Observation|Procedure|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0|Observation|5.0.0|Procedure|5.0.0|DiagnosticReport|5.0.0|DocumentReference|5.0.0)
 </t>
   </si>
   <si>
@@ -1098,7 +1098,7 @@
     <t>A code that identifies the reason a procedure is  required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|5.0.0</t>
   </si>
   <si>
     <t>Event.reason</t>
@@ -1128,7 +1128,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1152,7 +1152,7 @@
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1161,7 +1161,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
+    <t xml:space="preserve">Reference(DiagnosticReport|5.0.0|DocumentReference|5.0.0|Composition|5.0.0)
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0)
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1214,7 +1214,7 @@
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1278,7 +1278,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action|5.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1287,7 +1287,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|5.0.0)
 </t>
   </si>
   <si>
@@ -1303,7 +1303,7 @@
     <t>Procedure.used</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Device|Medication|Substance|BiologicallyDerivedProduct)
+    <t xml:space="preserve">CodeableReference(Device|5.0.0|Medication|5.0.0|Substance|5.0.0|BiologicallyDerivedProduct|5.0.0)
 </t>
   </si>
   <si>
@@ -1322,7 +1322,7 @@
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/ValueSet/device-type|5.0.0</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1331,7 +1331,7 @@
     <t>Procedure.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2737,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>196</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>246</v>
       </c>
@@ -7497,12 +7497,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN51">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-brain-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
